--- a/example.xlsx
+++ b/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoppy/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshi01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2E699B-33D7-7C47-8116-E621CDF9D4A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429E9088-427C-4AD2-812D-9104F0634232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,8 @@
     <t>高松城</t>
   </si>
   <si>
-    <t>高松城（たかまつじょう）は、日本の香川県高松市玉藻町にあった城である。</t>
+    <t>高松城（たかまつじょう）は、日本の香川県高松市玉藻町にあったお城である。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -89,10 +90,9 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,22 +115,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -357,16 +354,16 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -376,23 +373,23 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>34.340339999999998</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>134.04641000000001</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -401,7 +398,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>34.350056000000002</v>
       </c>
@@ -411,7 +408,7 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
     </row>

--- a/example.xlsx
+++ b/example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshi01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429E9088-427C-4AD2-812D-9104F0634232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6BF3EB-925F-4C50-900B-9EE14A5CA6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <t>高松城</t>
   </si>
   <si>
-    <t>高松城（たかまつじょう）は、日本の香川県高松市玉藻町にあったお城である。</t>
+    <t>高松城（たかまつじょう）は、日本の香川県高松市玉藻町にあった城である。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -354,7 +354,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshi01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6BF3EB-925F-4C50-900B-9EE14A5CA6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093DA758-9FE1-4145-B1B6-980F84A2E161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <t>高松城</t>
   </si>
   <si>
-    <t>高松城（たかまつじょう）は、日本の香川県高松市玉藻町にあった城である。</t>
+    <t>高松城（たかまつじょう）は、日本の香川県高松市玉藻町にあったお城である。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
